--- a/data/target/DMSO_metrics.xlsx
+++ b/data/target/DMSO_metrics.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Leonore/Documents/Workspace/l4proj/data/target/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB9C66E-0B8A-F34D-994C-8F8C96AC304E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030B5B1A-12B3-794A-B971-8FDFC3BF33F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="20580" windowHeight="15540" activeTab="1" xr2:uid="{7DAF5FC1-2E1E-A74E-98A0-0E9C5ECDC166}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="20580" windowHeight="15540" xr2:uid="{7DAF5FC1-2E1E-A74E-98A0-0E9C5ECDC166}"/>
   </bookViews>
   <sheets>
     <sheet name="per image" sheetId="1" r:id="rId1"/>
     <sheet name="per category" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -55,9 +57,6 @@
     <t>CK19 - N - 11</t>
   </si>
   <si>
-    <t>CK19 - N  - 15</t>
-  </si>
-  <si>
     <t>CK19 - N - 18</t>
   </si>
   <si>
@@ -85,9 +84,6 @@
     <t>CK19 - P - 5</t>
   </si>
   <si>
-    <t xml:space="preserve">CK19 - P - 8 </t>
-  </si>
-  <si>
     <t>CK19 - P - 11</t>
   </si>
   <si>
@@ -353,6 +349,12 @@
   </si>
   <si>
     <t>CK22 - P - 23</t>
+  </si>
+  <si>
+    <t>CK19 - N - 15</t>
+  </si>
+  <si>
+    <t>CK19 - P - 8</t>
   </si>
 </sst>
 </file>
@@ -712,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A814867-0235-E44A-9AE5-2C5E836C6FC9}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,16 +727,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -773,7 +775,7 @@
         <v>0.29099999999999998</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -781,13 +783,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>0.33400000000000002</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -795,7 +797,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0.75</v>
@@ -809,7 +811,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0.60899999999999999</v>
@@ -823,7 +825,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0.25900000000000001</v>
@@ -837,7 +839,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0.18</v>
@@ -851,13 +853,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0.309</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -865,13 +867,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0.35399999999999998</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -879,7 +881,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0.63400000000000001</v>
@@ -893,7 +895,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0.68500000000000005</v>
@@ -907,7 +909,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0.17100000000000001</v>
@@ -921,7 +923,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>0.193</v>
@@ -935,13 +937,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0.28199999999999997</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -949,13 +951,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0.317</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -963,7 +965,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0.56799999999999995</v>
@@ -977,7 +979,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0.57099999999999995</v>
@@ -991,7 +993,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0.215</v>
@@ -1005,7 +1007,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0.17199999999999999</v>
@@ -1019,7 +1021,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>0.16200000000000001</v>
@@ -1033,7 +1035,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>0.17199999999999999</v>
@@ -1047,7 +1049,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>0.188</v>
@@ -1061,7 +1063,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0.16700000000000001</v>
@@ -1075,7 +1077,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>0.184</v>
@@ -1089,7 +1091,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0.17199999999999999</v>
@@ -1103,7 +1105,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>0.187</v>
@@ -1117,7 +1119,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>0.188</v>
@@ -1131,7 +1133,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>0.67200000000000004</v>
@@ -1145,7 +1147,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0.71899999999999997</v>
@@ -1159,7 +1161,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0.65200000000000002</v>
@@ -1173,7 +1175,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>0.69299999999999995</v>
@@ -1187,7 +1189,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>0.66500000000000004</v>
@@ -1201,7 +1203,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>0.41699999999999998</v>
@@ -1215,7 +1217,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>0.59499999999999997</v>
@@ -1229,7 +1231,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0.624</v>
@@ -1243,7 +1245,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>0.63700000000000001</v>
@@ -1257,7 +1259,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>0.622</v>
@@ -1271,7 +1273,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>0.186</v>
@@ -1285,7 +1287,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>0.19600000000000001</v>
@@ -1299,7 +1301,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0.17599999999999999</v>
@@ -1313,7 +1315,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>0.16200000000000001</v>
@@ -1327,7 +1329,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>0.215</v>
@@ -1341,7 +1343,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0.192</v>
@@ -1355,7 +1357,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>0.192</v>
@@ -1369,7 +1371,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>0.16600000000000001</v>
@@ -1383,7 +1385,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>0.19600000000000001</v>
@@ -1397,7 +1399,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>0.16500000000000001</v>
@@ -1411,7 +1413,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>0.66300000000000003</v>
@@ -1425,7 +1427,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>0.65800000000000003</v>
@@ -1439,7 +1441,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0.67500000000000004</v>
@@ -1453,7 +1455,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>0.65500000000000003</v>
@@ -1467,7 +1469,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>0.65200000000000002</v>
@@ -1481,7 +1483,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>0.65300000000000002</v>
@@ -1495,7 +1497,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>0.67100000000000004</v>
@@ -1509,7 +1511,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0.64600000000000002</v>
@@ -1523,7 +1525,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>0.69199999999999995</v>
@@ -1537,7 +1539,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>0.70199999999999996</v>
@@ -1551,7 +1553,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>0.13600000000000001</v>
@@ -1565,7 +1567,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>0.17</v>
@@ -1579,7 +1581,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0.14499999999999999</v>
@@ -1593,7 +1595,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>0.18</v>
@@ -1607,7 +1609,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>0.186</v>
@@ -1621,7 +1623,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>0.16300000000000001</v>
@@ -1635,7 +1637,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>0.17599999999999999</v>
@@ -1649,7 +1651,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B67">
         <v>0.183</v>
@@ -1663,7 +1665,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B68">
         <v>0.16700000000000001</v>
@@ -1677,7 +1679,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69">
         <v>0.17399999999999999</v>
@@ -1691,7 +1693,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0.222</v>
@@ -1705,7 +1707,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B71">
         <v>0.25900000000000001</v>
@@ -1719,7 +1721,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B72">
         <v>0.248</v>
@@ -1733,7 +1735,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B73">
         <v>0.251</v>
@@ -1747,7 +1749,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B74">
         <v>0.33</v>
@@ -1761,7 +1763,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B75">
         <v>0.317</v>
@@ -1775,7 +1777,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>0.30299999999999999</v>
@@ -1789,7 +1791,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B77">
         <v>0.28999999999999998</v>
@@ -1803,7 +1805,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>0.28299999999999997</v>
@@ -1817,7 +1819,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0.25700000000000001</v>
@@ -1831,7 +1833,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B80">
         <v>0.152</v>
@@ -1845,7 +1847,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B81">
         <v>0.13600000000000001</v>
@@ -1859,7 +1861,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0.14799999999999999</v>
@@ -1873,7 +1875,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B83">
         <v>0.152</v>
@@ -1887,7 +1889,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0.155</v>
@@ -1901,7 +1903,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>0.158</v>
@@ -1915,7 +1917,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B86">
         <v>0.17299999999999999</v>
@@ -1929,7 +1931,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>0.152</v>
@@ -1943,7 +1945,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B88">
         <v>0.16300000000000001</v>
@@ -1957,7 +1959,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B89">
         <v>0.154</v>
@@ -1971,7 +1973,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B90">
         <v>0.23400000000000001</v>
@@ -1985,7 +1987,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91">
         <v>0.23100000000000001</v>
@@ -1999,7 +2001,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B92">
         <v>0.27900000000000003</v>
@@ -2013,7 +2015,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93">
         <v>0.25800000000000001</v>
@@ -2027,7 +2029,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B94">
         <v>0.28000000000000003</v>
@@ -2041,7 +2043,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>0.29099999999999998</v>
@@ -2055,7 +2057,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0.189</v>
@@ -2069,7 +2071,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0.23200000000000001</v>
@@ -2083,7 +2085,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B98">
         <v>0.193</v>
@@ -2097,7 +2099,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0.255</v>
@@ -2119,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E224F3-B6EB-9F43-93DD-DF79AC116604}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
